--- a/lda/LDA_experiment.xlsx
+++ b/lda/LDA_experiment.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B680DD-5D29-422D-B3EC-339A7418BB88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1C02B2-4D7D-42AA-9501-EFA729C5EA0F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>z1</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>stdev</t>
+  </si>
+  <si>
+    <t>xc1</t>
+  </si>
+  <si>
+    <t>1row * 1 row</t>
+  </si>
+  <si>
+    <t>2row * 2row</t>
   </si>
 </sst>
 </file>
@@ -420,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:M9"/>
+  <dimension ref="A3:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,7 +442,7 @@
     <col min="4" max="4" width="5.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -462,7 +471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>0</v>
       </c>
@@ -495,7 +504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -528,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -561,7 +570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>8</v>
       </c>
@@ -594,7 +603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -623,7 +632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>8</v>
       </c>
@@ -645,6 +654,64 @@
       <c r="L9" s="4">
         <f>_xlfn.STDEV.P(L4:L7)</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1">
+        <f>B15^2</f>
+        <v>1.9999999989447279</v>
+      </c>
+      <c r="K14" s="1">
+        <f>B15*C15</f>
+        <v>1.8973665948935396</v>
+      </c>
+      <c r="M14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
+        <v>-1.414213562</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-1.3416407859999999</v>
+      </c>
+      <c r="J15" s="1">
+        <f>K14</f>
+        <v>1.8973665948935396</v>
+      </c>
+      <c r="K15" s="1">
+        <f>C15^2</f>
+        <v>1.7999999986586976</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <f>C16^2</f>
+        <v>0.19999999955282405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.44721359500000002</v>
       </c>
     </row>
   </sheetData>

--- a/lda/LDA_experiment.xlsx
+++ b/lda/LDA_experiment.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1C02B2-4D7D-42AA-9501-EFA729C5EA0F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C37FB9-B42F-4AAF-9345-23BC41628DEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>z1</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>2row * 2row</t>
+  </si>
+  <si>
+    <t>xc10</t>
+  </si>
+  <si>
+    <t>S1</t>
   </si>
 </sst>
 </file>
@@ -429,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:P16"/>
+  <dimension ref="A3:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -660,27 +666,32 @@
       <c r="B13" t="s">
         <v>9</v>
       </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="H14" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f>B15^2</f>
-        <v>1.9999999989447279</v>
+        <f>F15^2</f>
+        <v>0.49999999973618198</v>
       </c>
       <c r="K14" s="1">
-        <f>B15*C15</f>
-        <v>1.8973665948935396</v>
+        <f>F15*G15</f>
+        <v>0.63245553151332878</v>
       </c>
       <c r="M14" t="s">
         <v>11</v>
       </c>
       <c r="O14" s="1">
-        <v>0</v>
+        <f>M16^2</f>
+        <v>0.49999999973618198</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <f>M16*N16</f>
+        <v>0.63245553151332878</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -690,20 +701,29 @@
       <c r="C15" s="1">
         <v>-1.3416407859999999</v>
       </c>
+      <c r="F15" s="1">
+        <f>B15-B$17</f>
+        <v>-0.70710678100000002</v>
+      </c>
+      <c r="G15" s="1">
+        <f>C15-C$17</f>
+        <v>-0.89442719049999997</v>
+      </c>
       <c r="J15" s="1">
         <f>K14</f>
-        <v>1.8973665948935396</v>
+        <v>0.63245553151332878</v>
       </c>
       <c r="K15" s="1">
-        <f>C15^2</f>
-        <v>1.7999999986586976</v>
+        <f>G16^2</f>
+        <v>0.79999999910572328</v>
       </c>
       <c r="O15" s="1">
-        <v>0</v>
+        <f>P14</f>
+        <v>0.63245553151332878</v>
       </c>
       <c r="P15" s="1">
-        <f>C16^2</f>
-        <v>0.19999999955282405</v>
+        <f>N16^2</f>
+        <v>0.79999999910572328</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -712,6 +732,69 @@
       </c>
       <c r="C16" s="1">
         <v>0.44721359500000002</v>
+      </c>
+      <c r="F16" s="1">
+        <f>B16-B$17</f>
+        <v>0.70710678100000002</v>
+      </c>
+      <c r="G16" s="1">
+        <f>C16-C$17</f>
+        <v>0.89442719049999997</v>
+      </c>
+      <c r="M16">
+        <v>0.70710678100000002</v>
+      </c>
+      <c r="N16">
+        <v>0.89442719049999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <f>AVERAGE(B15:B16)</f>
+        <v>-0.70710678100000002</v>
+      </c>
+      <c r="C17">
+        <f>AVERAGE(C15:C16)</f>
+        <v>-0.44721359549999995</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f>AVERAGE(F15:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>AVERAGE(G15:G16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="1">
+        <f>J14+O14</f>
+        <v>0.99999999947236395</v>
+      </c>
+      <c r="C21" s="1">
+        <f>K14+P14</f>
+        <v>1.2649110630266576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="1">
+        <f>J15+O15</f>
+        <v>1.2649110630266576</v>
+      </c>
+      <c r="C22" s="1">
+        <f>K15+P15</f>
+        <v>1.5999999982114466</v>
       </c>
     </row>
   </sheetData>

--- a/lda/LDA_experiment.xlsx
+++ b/lda/LDA_experiment.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C37FB9-B42F-4AAF-9345-23BC41628DEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABDA8FA-391C-4E40-BA93-90A156A53806}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A3:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -786,6 +786,10 @@
         <f>K14+P14</f>
         <v>1.2649110630266576</v>
       </c>
+      <c r="F21">
+        <f>C21^2</f>
+        <v>1.599999997367229</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
